--- a/src/农村公路导入模板_V1.0.xlsx
+++ b/src/农村公路导入模板_V1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Life Style\片区软件产品\数据采集工具集\roadMap\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D50C9A-7D39-4608-826A-5AC5D887EF90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37013189-C4CA-4605-A22D-50BD09D8059A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-13340" yWindow="6330" windowWidth="13140" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="信息填写" sheetId="1" r:id="rId1"/>
@@ -760,9 +760,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P4" sqref="P4"/>
+      <selection pane="bottomLeft" activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>

--- a/src/农村公路导入模板_V1.0.xlsx
+++ b/src/农村公路导入模板_V1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Life Style\片区软件产品\数据采集工具集\roadMap\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37013189-C4CA-4605-A22D-50BD09D8059A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83368525-8D10-4F94-AA2C-249DC1101C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-13340" yWindow="6330" windowWidth="13140" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="信息填写" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="70">
   <si>
     <t>必填信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -310,6 +310,10 @@
   </si>
   <si>
     <t>上海公路桥梁（集团）有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道路轨迹坐标</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -447,7 +451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -471,6 +475,9 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="31" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="31" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -758,11 +765,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P12" sqref="P12"/>
+      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -775,46 +782,48 @@
     <col min="7" max="7" width="12.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" style="4"/>
     <col min="9" max="10" width="26.08203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.9140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5" style="4" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.6640625" style="4"/>
-    <col min="15" max="15" width="26.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="28.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="24.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="24" width="8.6640625" style="4"/>
-    <col min="25" max="25" width="8.5" style="4" customWidth="1"/>
-    <col min="26" max="16384" width="8.6640625" style="4"/>
+    <col min="11" max="11" width="26.08203125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="15.9140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5" style="4" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" style="4"/>
+    <col min="16" max="16" width="26.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="25" width="8.6640625" style="4"/>
+    <col min="26" max="26" width="8.5" style="4" customWidth="1"/>
+    <col min="27" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="18" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -845,38 +854,41 @@
       <c r="J2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A3" s="8" t="s">
         <v>54</v>
       </c>
@@ -907,40 +919,41 @@
       <c r="J3" s="15">
         <v>46021</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="15"/>
+      <c r="L3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="M3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="M3" s="8">
+      <c r="N3" s="8">
         <v>24</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="O3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="P3" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="Q3" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="R3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="S3" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="S3" s="8"/>
       <c r="T3" s="8"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="K4" s="16"/>
+      <c r="U3" s="8"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="L4" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:J1"/>
-    <mergeCell ref="K1:T1"/>
+    <mergeCell ref="L1:U1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
